--- a/data/annotations/new_annotation_structure_out/iteration_9/iteration_9_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_9/iteration_9_mistral-large-2411-3.xlsx
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -5828,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" t="n">
         <v>0</v>
@@ -7934,13 +7934,13 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -8006,13 +8006,13 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
